--- a/biology/Microbiologie/Trypanosomatidae/Trypanosomatidae.xlsx
+++ b/biology/Microbiologie/Trypanosomatidae/Trypanosomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trypanosomatidae sont une famille d'eucaryotes unicellulaires flagellés pathogènes d'animaux et de végétaux, de l'ordre des Trypanosomatida.
 Chez l'homme, les Trypanosoma provoquent des trypanosomiases, et entre autres la maladie du sommeil et la maladie de Chagas, et les Leishmania causent les leishmanioses.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (16 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (16 septembre 2023) :
 Angomonas Souza &amp; Corte-Real, 1991
 Blastocrithidia Laird, 1959
 Blechomonas Votýpka &amp; Suková, 2013
@@ -586,10 +600,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Trypanosomatidae Doflein, 1901[1].
-L'IRMNG  (16 septembre 2023)[2] rapporte deux synonymes de Trypanosomatidae suivant la nomenclature botanique (terminaison des familles en -aceae) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Trypanosomatidae Doflein, 1901.
+L'IRMNG  (16 septembre 2023) rapporte deux synonymes de Trypanosomatidae suivant la nomenclature botanique (terminaison des familles en -aceae) :
 Trypanosomaceae
 Trypanosomataceae</t>
         </is>
@@ -619,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) F. Doflein, Die Protozoen als Parasiten und Krankheitserreger nach biologischen Gesichtspunkten dargestellt, Jena: Gustav Fischer, 1901) (lire en ligne), xiv, 274, 220 figures.</t>
         </is>
